--- a/xlsx/私立学校_intext.xlsx
+++ b/xlsx/私立学校_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>私立学校</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地方政府</t>
   </si>
   <si>
-    <t>政策_政策_美國_私立学校</t>
+    <t>政策_政策_美国_私立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>私立中學</t>
+    <t>私立中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B2%9B%E5%8D%97%E6%B4%8B%E5%AD%A6%E6%A0%A1</t>
@@ -149,25 +149,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>私立大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E8%B2%BC%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>津貼學校</t>
+    <t>津贴学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育學</t>
+    <t>教育学</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1174,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1203,10 +1200,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1261,10 +1258,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1290,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1319,10 +1316,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1348,10 +1345,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1377,10 +1374,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1406,10 +1403,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -1435,10 +1432,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
